--- a/vignettes/Alameda-May4-v2 output.xlsx
+++ b/vignettes/Alameda-May4-v2 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,211 +86,7 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
-    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:   2.890940             4                            4        0.04202709                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:   2.443608             1                            5        0.06810695                  13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:   3.705172             3                            4        0.03828022                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:   3.097102             2                            5        0.02517421                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:   4.921586             3                            7        0.03643845                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:   3.377879             2                            5        0.03032866                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:   2.929420             4                            5        0.04777166                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:   4.067994             4                            4        0.04787753                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:   3.812798             4                            4        0.05059497                   7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:   3.143115             3                            4        0.01616573                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        prop.icu prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1: 0.4487887 0.8292936         2020-03-06                0.5251996                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2: 0.5502658 0.8831492         2020-03-06                0.6580592                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3: 0.4664154 0.8195063         2020-03-06                0.7779575                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4: 0.4287021 0.8479070         2020-03-06                0.8273989                         7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5: 0.4736474 0.8533035         2020-03-06                0.5157291                         8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996: 0.4393939 0.8796800         2020-03-06                0.8397557                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997: 0.4920944 0.8337167         2020-03-06                0.4330270                         9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998: 0.4706050 0.8279167         2020-03-06                0.6462548                         9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999: 0.4675072 0.8122769         2020-03-06                0.5661305                         4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000: 0.4511491 0.8924137         2020-03-06                0.4177203                         7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       intervention2.date intervention2.multiplier intervention2.smooth.days intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:         2020-03-16                0.3952299                         8         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:         2020-03-16                0.4654842                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:         2020-03-16                0.3139963                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:         2020-03-16                0.5594182                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:         2020-03-16                0.6443424                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:         2020-03-16                0.2966097                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:         2020-03-16                0.4457069                         8         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:         2020-03-16                0.5541582                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:         2020-03-16                0.3275438                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:         2020-03-16                0.9422704                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:                 1.679144                         7                           FALSE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:                 1.365394                         8                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:                 1.471412                         5                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:                 2.040386                        10                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:                 1.449264                         7                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:                 1.541516                         4                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:                 1.462749                         7                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:                 1.414118                         5                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:                 2.013811                         7                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:                 1.605697                         5                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:                   6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:                   9</t>
-  </si>
-  <si>
     <t xml:space="preserve">$best.guess.params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:        3.5             3                            5              0.04                  10     0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:      0.85         2020-03-06                      0.6                         7         2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                     0.45                         7         2020-06-01                      1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                         7                            TRUE          TRUE                   9</t>
   </si>
   <si>
     <t xml:space="preserve">$devlist</t>
@@ -305,310 +101,19 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
-    <t xml:space="preserve">                      internal.name                                                           external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3        3.5          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        internal.name            external.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   total.population Number of People in Area     883305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
   </si>
   <si>
-    <t xml:space="preserve">          Date LowerBound UpperBound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01         52      59.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02         57      65.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03         64      73.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04         60      69.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05         72      82.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06         79      90.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07         76      87.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08         84      96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09         80      92.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10         93     106.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11         87     100.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12         91     104.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13         85      97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14         92     105.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15         81      93.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17         85      97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18         82      94.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19         84      96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20         85      97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21         85      97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22         84      96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23         81      93.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24         79      90.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25         83      95.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26         84      96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27         81      93.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28         76      87.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29         76      87.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30         74      85.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01         75      86.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02         73      83.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03         73      83.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">$extras$Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations      10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 15:26:13"</t>
+    <t xml:space="preserve">[1] "2020-05-04 23:41:28"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -617,109 +122,10 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9002" </t>
+    <t xml:space="preserve">"0.3.0.9003" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date lower  upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01    52  59.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02    57  65.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03    64  73.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04    60  69.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05    72  82.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06    79  90.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07    76  87.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08    84  96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09    80  92.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10    93 106.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11    87 100.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12    91 104.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13    85  97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14    92 105.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15    81  93.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17    85  97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18    82  94.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19    84  96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20    85  97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21    85  97.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22    84  96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23    81  93.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24    79  90.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25    83  95.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26    84  96.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27    81  93.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28    76  87.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29    76  87.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30    74  85.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01    75  86.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02    73  83.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03    73  83.95</t>
   </si>
   <si>
     <t xml:space="preserve">$internal.args</t>
@@ -824,7 +230,7 @@
     <t xml:space="preserve">$model.inputs$total.population</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] 883305</t>
+    <t xml:space="preserve">[1] 1671000</t>
   </si>
   <si>
     <t xml:space="preserve">$model.inputs$start.display.date</t>
@@ -840,105 +246,6 @@
   </si>
   <si>
     <t xml:space="preserve">$observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date   hosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 55.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 61.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 68.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 64.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 77.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 84.925</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 81.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 90.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 86.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 99.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 93.525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 97.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 91.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 98.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 87.075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 91.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 88.150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 90.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 91.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 91.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 90.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 87.075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 84.925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 89.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 90.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 87.075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 81.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 81.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 79.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 80.625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 78.475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 78.475</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +658,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="n">
-        <v>17.5071579690761</v>
+        <v>17.3609351553664</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1377,7 +684,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="n">
-        <v>20.2356701814739</v>
+        <v>20.0682084275112</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1403,7 +710,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="n">
-        <v>23.2373033791948</v>
+        <v>23.0470281265838</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1429,7 +736,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="n">
-        <v>26.5470288354886</v>
+        <v>26.3322966271615</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1455,7 +762,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="n">
-        <v>30.1344879731247</v>
+        <v>29.8940769766044</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1481,7 +788,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="n">
-        <v>33.9377620710356</v>
+        <v>33.6710970920057</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1507,7 +814,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="n">
-        <v>37.8767316416707</v>
+        <v>37.5839883060489</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1533,7 +840,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="n">
-        <v>41.8605314153985</v>
+        <v>41.5426653743451</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1559,7 +866,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="n">
-        <v>45.793284360418</v>
+        <v>45.4520032292244</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1585,7 +892,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="n">
-        <v>49.5792161801865</v>
+        <v>49.216905212357</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1611,7 +918,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="n">
-        <v>53.1272954628252</v>
+        <v>52.7469075290188</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1637,7 +944,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="n">
-        <v>56.4071119915719</v>
+        <v>56.0118023515712</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1663,7 +970,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="n">
-        <v>59.4166617728298</v>
+        <v>59.009605954194</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1689,7 +996,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="n">
-        <v>62.1668912027844</v>
+        <v>61.7511965939549</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1715,7 +1022,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="n">
-        <v>64.674262328905</v>
+        <v>64.2529278599855</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1741,7 +1048,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="n">
-        <v>66.9571693614126</v>
+        <v>66.5330699022545</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1767,7 +1074,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="n">
-        <v>69.034213452898</v>
+        <v>68.6100968950741</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1793,7 +1100,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="n">
-        <v>70.9233807454183</v>
+        <v>70.5018715280865</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1819,7 +1126,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="n">
-        <v>72.6416641436288</v>
+        <v>72.2252699577612</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1845,7 +1152,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="n">
-        <v>74.2049061888033</v>
+        <v>73.7960261315435</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1871,7 +1178,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="n">
-        <v>75.6277540303345</v>
+        <v>75.2286872832281</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1897,7 +1204,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="n">
-        <v>76.9236722492552</v>
+        <v>76.5366267780141</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1923,7 +1230,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="n">
-        <v>78.104985889753</v>
+        <v>77.7320868913739</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1949,7 +1256,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="n">
-        <v>79.1829391448228</v>
+        <v>78.8262370936148</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1975,7 +1282,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="n">
-        <v>80.1677617141182</v>
+        <v>79.8292399295156</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2001,7 +1308,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="n">
-        <v>81.068738251468</v>
+        <v>80.7503199522907</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2027,7 +1334,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="n">
-        <v>81.8942781525109</v>
+        <v>81.597832987609</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2053,7 +1360,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="n">
-        <v>82.6519839748298</v>
+        <v>82.379334035742</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2079,7 +1386,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="n">
-        <v>83.3487174116547</v>
+        <v>83.1016427427982</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2105,7 +1412,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="n">
-        <v>83.9906621426083</v>
+        <v>83.7709057707282</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2131,7 +1438,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="n">
-        <v>84.5833831558743</v>
+        <v>84.3926556642514</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2157,7 +1464,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="n">
-        <v>85.1318823253836</v>
+        <v>84.9718660004078</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2183,7 +1490,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="n">
-        <v>85.6406501617131</v>
+        <v>85.5130027403614</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2209,7 +1516,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="n">
-        <v>86.1137137525899</v>
+        <v>86.0200717994544</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2235,7 +1542,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="n">
-        <v>86.5546809784758</v>
+        <v>86.4966629204967</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2261,7 +1568,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="n">
-        <v>86.9667811376003</v>
+        <v>86.9459899837566</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2287,7 +1594,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="n">
-        <v>87.3529021479903</v>
+        <v>87.3709279200123</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2313,7 +1620,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="n">
-        <v>87.7156245152136</v>
+        <v>87.7740464140097</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2339,7 +1646,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="n">
-        <v>88.0572522665511</v>
+        <v>88.157640597559</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2365,7 +1672,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="n">
-        <v>88.3798410573543</v>
+        <v>88.5237589364929</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2391,7 +1698,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="n">
-        <v>88.6852236551735</v>
+        <v>88.8742285155281</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2417,7 +1724,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="n">
-        <v>88.9750330032226</v>
+        <v>89.2106779210748</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2443,7 +1750,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="n">
-        <v>89.2507230579711</v>
+        <v>89.5345579153084</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2469,7 +1776,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="n">
-        <v>89.5135875869614</v>
+        <v>89.8471600861864</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2495,7 +1802,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="n">
-        <v>89.7647771030098</v>
+        <v>90.1496336482252</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2521,7 +1828,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="n">
-        <v>90.00531410027</v>
+        <v>90.4430005582534</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2547,7 +1854,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="n">
-        <v>90.2361067466206</v>
+        <v>90.7281690994167</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2573,7 +1880,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="n">
-        <v>90.4579611757662</v>
+        <v>91.0059460757291</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2669,7 +1976,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="n">
-        <v>7.87822108608427</v>
+        <v>7.8124208199149</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2695,7 +2002,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="n">
-        <v>9.10605158166326</v>
+        <v>9.03069379238006</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2721,7 +2028,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="n">
-        <v>10.4567865206376</v>
+        <v>10.3711626569627</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2747,7 +2054,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="n">
-        <v>11.9461629759699</v>
+        <v>11.8495334822227</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2773,7 +2080,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="n">
-        <v>13.5605195879061</v>
+        <v>13.452334639472</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2799,7 +2106,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="n">
-        <v>15.271992931966</v>
+        <v>15.1519936914026</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2825,7 +2132,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="n">
-        <v>17.0445292387518</v>
+        <v>16.912794737722</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2851,7 +2158,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="n">
-        <v>18.8372391369293</v>
+        <v>18.6941994184553</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2877,7 +2184,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="n">
-        <v>20.6069779621881</v>
+        <v>20.453401453151</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2903,7 +2210,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="n">
-        <v>22.3106472810839</v>
+        <v>22.1476073455607</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2929,7 +2236,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="n">
-        <v>23.9072829582713</v>
+        <v>23.7361083880585</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2955,7 +2262,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="n">
-        <v>25.3832003962073</v>
+        <v>25.205311058207</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2981,7 +2288,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="n">
-        <v>26.7374977977734</v>
+        <v>26.5543226793873</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3007,7 +2314,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="n">
-        <v>27.975101041253</v>
+        <v>27.7880384672797</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3033,7 +2340,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="n">
-        <v>29.1034180480073</v>
+        <v>28.9138175369935</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3059,7 +2366,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="n">
-        <v>30.1307262126357</v>
+        <v>29.9398814560145</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3085,7 +2392,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="n">
-        <v>31.0653960538041</v>
+        <v>30.8745436027833</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3111,7 +2418,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="n">
-        <v>31.9155213354382</v>
+        <v>31.7258421876389</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3137,7 +2444,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="n">
-        <v>32.6887488646329</v>
+        <v>32.5013714809925</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3163,7 +2470,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="n">
-        <v>33.3922077849615</v>
+        <v>33.2082117591946</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3189,7 +2496,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="n">
-        <v>34.0324893136505</v>
+        <v>33.8529092774527</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3215,7 +2522,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="n">
-        <v>34.6156525121648</v>
+        <v>34.4414820501063</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3241,7 +2548,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="n">
-        <v>35.1472436503889</v>
+        <v>34.9794391011182</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3267,7 +2574,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="n">
-        <v>35.6323226151702</v>
+        <v>35.4718066921266</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3293,7 +2600,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="n">
-        <v>36.0754927713532</v>
+        <v>35.923157968282</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3319,7 +2626,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="n">
-        <v>36.4809322131606</v>
+        <v>36.3376439785308</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3345,7 +2652,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="n">
-        <v>36.8524251686299</v>
+        <v>36.7190248444241</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3371,7 +2678,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="n">
-        <v>37.1933927886734</v>
+        <v>37.0707003160839</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3397,7 +2704,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="n">
-        <v>37.5069228352446</v>
+        <v>37.3957392342592</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3423,7 +2730,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="n">
-        <v>37.7957979641738</v>
+        <v>37.6969075968277</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3449,7 +2756,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="n">
-        <v>38.0625224201434</v>
+        <v>37.9766950489131</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3475,7 +2782,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="n">
-        <v>38.3093470464226</v>
+        <v>38.2373397001835</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3501,7 +2808,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="n">
-        <v>38.5382925727709</v>
+        <v>38.4808512331626</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3527,7 +2834,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="n">
-        <v>38.7511711886654</v>
+        <v>38.7090323097545</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3553,7 +2860,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="n">
-        <v>38.9496064403141</v>
+        <v>38.9234983142235</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3579,7 +2886,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="n">
-        <v>39.1350515119201</v>
+        <v>39.1256954926905</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3605,7 +2912,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="n">
-        <v>39.3088059665956</v>
+        <v>39.3169175640055</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3631,7 +2938,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="n">
-        <v>39.4720310318461</v>
+        <v>39.4983208863044</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3657,7 +2964,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="n">
-        <v>39.625763519948</v>
+        <v>39.6709382689016</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3683,7 +2990,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="n">
-        <v>39.7709284758094</v>
+        <v>39.8356915214218</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3709,7 +3016,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="n">
-        <v>39.9083506448281</v>
+        <v>39.9934028319876</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3735,7 +3042,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="n">
-        <v>40.0387648514502</v>
+        <v>40.1448050644837</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3761,7 +3068,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="n">
-        <v>40.162825376087</v>
+        <v>40.2905510618888</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3787,7 +3094,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="n">
-        <v>40.2811144141326</v>
+        <v>40.4312220387839</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3813,7 +3120,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="n">
-        <v>40.3941496963544</v>
+        <v>40.5673351417013</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3839,7 +3146,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="n">
-        <v>40.5023913451215</v>
+        <v>40.699350251214</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3865,7 +3172,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="n">
-        <v>40.6062480359793</v>
+        <v>40.8276760947375</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3891,7 +3198,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="n">
-        <v>40.7060825290948</v>
+        <v>40.9526757340781</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3987,7 +3294,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="n">
-        <v>6.69648792317163</v>
+        <v>6.64055769692766</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4013,7 +3320,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="n">
-        <v>7.74014384441377</v>
+        <v>7.67608972352305</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -4039,7 +3346,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="n">
-        <v>8.888268542542</v>
+        <v>8.81548825841829</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -4065,7 +3372,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="n">
-        <v>10.1542385295744</v>
+        <v>10.0721034598893</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4091,7 +3398,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="n">
-        <v>11.5264416497202</v>
+        <v>11.4344844435512</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -4117,7 +3424,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="n">
-        <v>12.9811939921711</v>
+        <v>12.8791946376922</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -4143,7 +3450,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="n">
-        <v>14.4878498529391</v>
+        <v>14.3758755270637</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -4169,7 +3476,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="n">
-        <v>16.0116532663899</v>
+        <v>15.890069505687</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4195,7 +3502,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="n">
-        <v>17.5159312678599</v>
+        <v>17.3853912351783</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4221,7 +3528,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="n">
-        <v>18.9640501889213</v>
+        <v>18.8254662437266</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4247,7 +3554,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="n">
-        <v>20.3211905145306</v>
+        <v>20.1756921298497</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4273,7 +3580,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="n">
-        <v>21.5757203367762</v>
+        <v>21.424514399476</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -4299,7 +3606,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="n">
-        <v>22.7268731281074</v>
+        <v>22.5711742774792</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -4325,7 +3632,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="n">
-        <v>23.778835885065</v>
+        <v>23.6198326971877</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -4351,7 +3658,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="n">
-        <v>24.7379053408062</v>
+        <v>24.5767449064445</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -4377,7 +3684,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="n">
-        <v>25.6111172807403</v>
+        <v>25.4488992376123</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -4403,7 +3710,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="n">
-        <v>26.4055866457335</v>
+        <v>26.2433620623658</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -4429,7 +3736,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="n">
-        <v>27.1281931351225</v>
+        <v>26.9669658594931</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -4455,7 +3762,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="n">
-        <v>27.785436534938</v>
+        <v>27.6261657588437</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -4481,7 +3788,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="n">
-        <v>28.3833766172173</v>
+        <v>28.2269799953154</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -4507,7 +3814,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="n">
-        <v>28.9276159166029</v>
+        <v>28.7749728858348</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -4533,7 +3840,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="n">
-        <v>29.4233046353401</v>
+        <v>29.2752597425904</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -4559,7 +3866,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="n">
-        <v>29.8751571028305</v>
+        <v>29.7325232359505</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -4585,7 +3892,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="n">
-        <v>30.2874742228947</v>
+        <v>30.1510356883077</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -4611,7 +3918,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="n">
-        <v>30.6641688556502</v>
+        <v>30.5346842730397</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -4637,7 +3944,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="n">
-        <v>31.0087923811865</v>
+        <v>30.8869973817512</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -4663,7 +3970,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="n">
-        <v>31.3245613933354</v>
+        <v>31.2111711177605</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4689,7 +3996,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="n">
-        <v>31.6143838703724</v>
+        <v>31.5100952686713</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -4715,7 +4022,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="n">
-        <v>31.8808844099579</v>
+        <v>31.7863783491203</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -4741,7 +4048,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="n">
-        <v>32.1264282695477</v>
+        <v>32.0423714573035</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4767,7 +4074,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="n">
-        <v>32.3531440571219</v>
+        <v>32.2801907915762</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -4793,7 +4100,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="n">
-        <v>32.5629449894592</v>
+        <v>32.501738745156</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -4819,7 +4126,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="n">
-        <v>32.7575486868552</v>
+        <v>32.7087235481882</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4845,7 +4152,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="n">
-        <v>32.9384955103656</v>
+        <v>32.9026774632913</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4871,7 +4178,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="n">
-        <v>33.107165474267</v>
+        <v>33.08497356709</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4897,7 +4204,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="n">
-        <v>33.2647937851321</v>
+        <v>33.2568411687869</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4923,7 +4230,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="n">
-        <v>33.4124850716063</v>
+        <v>33.4193799294047</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -4949,7 +4256,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="n">
-        <v>33.5512263770692</v>
+        <v>33.5735727533587</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4975,7 +4282,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="n">
-        <v>33.6818989919558</v>
+        <v>33.7202975285663</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -5001,7 +4308,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="n">
-        <v>33.805289204438</v>
+        <v>33.8603377932085</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -5027,7 +4334,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="n">
-        <v>33.9220980481039</v>
+        <v>33.9943924071895</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -5053,7 +4360,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="n">
-        <v>34.0329501237327</v>
+        <v>34.1230843048111</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -5079,7 +4386,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="n">
-        <v>34.1384015696739</v>
+        <v>34.2469684026055</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -5105,7 +4412,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="n">
-        <v>34.2389472520127</v>
+        <v>34.3665387329663</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -5131,7 +4438,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="n">
-        <v>34.3350272419012</v>
+        <v>34.4822348704461</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -5157,7 +4464,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="n">
-        <v>34.4270326433533</v>
+        <v>34.5944477135319</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -5183,7 +4490,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="n">
-        <v>34.5153108305824</v>
+        <v>34.7035246805269</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5209,7 +4516,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="n">
-        <v>34.6001701497306</v>
+        <v>34.8097743739664</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5305,7 +4612,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="n">
-        <v>1208.82453997881</v>
+        <v>1199.46114586866</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -5331,7 +4638,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="n">
-        <v>1353.36330413261</v>
+        <v>1343.11361218934</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -5357,7 +4664,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="n">
-        <v>1483.55575827871</v>
+        <v>1472.58886129202</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -5383,7 +4690,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="n">
-        <v>1597.64376835855</v>
+        <v>1586.14039600322</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5409,7 +4716,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="n">
-        <v>1692.59137197993</v>
+        <v>1680.74645542625</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -5435,7 +4742,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="n">
-        <v>1765.69966259513</v>
+        <v>1753.71476710809</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -5461,7 +4768,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="n">
-        <v>1815.13438260406</v>
+        <v>1803.20766175527</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -5487,7 +4794,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="n">
-        <v>1840.09426538183</v>
+        <v>1828.41076984237</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5513,7 +4820,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="n">
-        <v>1840.81825354557</v>
+        <v>1829.54190434871</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -5539,7 +4846,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="n">
-        <v>1841.82799522487</v>
+        <v>1830.99194891318</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5565,7 +4872,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="n">
-        <v>1843.15566378847</v>
+        <v>1832.78869304954</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -5591,7 +4898,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="n">
-        <v>1844.79422871122</v>
+        <v>1834.92313431741</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -5617,7 +4924,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="n">
-        <v>1846.72025956293</v>
+        <v>1837.37108376725</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -5643,7 +4950,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="n">
-        <v>1848.90460510853</v>
+        <v>1840.10323659405</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -5669,7 +4976,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="n">
-        <v>1851.31729079677</v>
+        <v>1843.0897598285</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -5695,7 +5002,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="n">
-        <v>1853.92966608636</v>
+        <v>1846.30228244213</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -5721,7 +5028,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="n">
-        <v>1856.71525249271</v>
+        <v>1849.71466419983</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -5747,7 +5054,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="n">
-        <v>1859.64998655331</v>
+        <v>1853.30319922594</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -5773,7 +5080,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="n">
-        <v>1862.71218917197</v>
+        <v>1857.04656615296</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -5799,7 +5106,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="n">
-        <v>1865.88241886104</v>
+        <v>1860.92567236248</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -5825,7 +5132,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="n">
-        <v>1869.14328302955</v>
+        <v>1864.92346137171</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -5851,7 +5158,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="n">
-        <v>1872.47924156262</v>
+        <v>1869.02471502835</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -5877,7 +5184,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="n">
-        <v>1875.87641789623</v>
+        <v>1873.21586441483</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -5903,7 +5210,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="n">
-        <v>1879.32242375947</v>
+        <v>1877.48481498042</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -5929,7 +5236,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="n">
-        <v>1882.80619952348</v>
+        <v>1881.82078751514</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -5955,7 +5262,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="n">
-        <v>1886.31787015956</v>
+        <v>1886.21417480813</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -5981,7 +5288,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="n">
-        <v>1889.84861596747</v>
+        <v>1890.65641307491</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -6007,7 +5314,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="n">
-        <v>1893.39055691259</v>
+        <v>1895.13986695704</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -6033,7 +5340,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="n">
-        <v>1896.93664932996</v>
+        <v>1899.65772683777</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -6059,7 +5366,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="n">
-        <v>1900.48059378288</v>
+        <v>1904.20391725686</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -6085,7 +5392,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="n">
-        <v>1904.01675293973</v>
+        <v>1908.77301528887</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -6111,7 +5418,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="n">
-        <v>1907.54007842538</v>
+        <v>1913.36017784378</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -6137,7 +5444,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="n">
-        <v>1911.04604569942</v>
+        <v>1917.96107694603</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -6163,7 +5470,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="n">
-        <v>1914.53059610525</v>
+        <v>1922.57184213966</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -6189,7 +5496,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="n">
-        <v>1917.99008532004</v>
+        <v>1927.18900925375</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -6215,7 +5522,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="n">
-        <v>1921.42123751465</v>
+        <v>1931.80947484065</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -6241,7 +5548,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="n">
-        <v>1924.8211046041</v>
+        <v>1936.43045567132</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -6267,7 +5574,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="n">
-        <v>1928.18703003426</v>
+        <v>1941.04945273654</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -6293,7 +5600,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="n">
-        <v>1931.51661660912</v>
+        <v>1945.66421926135</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -6319,7 +5626,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="n">
-        <v>1934.80769791554</v>
+        <v>1950.27273229234</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -6345,7 +5652,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="n">
-        <v>1938.05831294995</v>
+        <v>1954.8731674648</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -6371,7 +5678,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="n">
-        <v>1941.26668359386</v>
+        <v>1959.46387659876</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -6397,7 +5704,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="n">
-        <v>1944.43119462324</v>
+        <v>1964.04336781113</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -6423,7 +5730,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="n">
-        <v>1947.55037597096</v>
+        <v>1968.61028786505</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -6449,7 +5756,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="n">
-        <v>1950.62288699205</v>
+        <v>1973.16340650775</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -6475,7 +5782,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="n">
-        <v>1953.64750250876</v>
+        <v>1977.70160257568</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -6501,7 +5808,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="n">
-        <v>1956.62310043695</v>
+        <v>1982.22385166969</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -6527,7 +5834,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="n">
-        <v>1959.54865081718</v>
+        <v>1986.72921522496</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -6623,7 +5930,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="n">
-        <v>1911.03108665505</v>
+        <v>1895.75353181879</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6649,7 +5956,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="n">
-        <v>2173.8830506663</v>
+        <v>2156.77495396443</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -6675,7 +5982,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="n">
-        <v>2436.57335307266</v>
+        <v>2417.70895845756</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -6701,7 +6008,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="n">
-        <v>2699.00324017661</v>
+        <v>2678.46254443701</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -6727,7 +6034,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="n">
-        <v>2957.99139117951</v>
+        <v>2935.87668911975</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6753,7 +6060,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="n">
-        <v>3209.73153706438</v>
+        <v>3186.1671737012</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6779,7 +6086,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="n">
-        <v>3450.63648737182</v>
+        <v>3425.76314929508</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -6805,7 +6112,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="n">
-        <v>3677.67772853252</v>
+        <v>3651.6451969333</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -6831,7 +6138,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="n">
-        <v>3888.52898279625</v>
+        <v>3861.48901547848</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -6857,7 +6164,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="n">
-        <v>4104.93917256826</v>
+        <v>4076.93543536586</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -6883,7 +6190,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="n">
-        <v>4324.0882382747</v>
+        <v>4295.18110840957</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -6909,7 +6216,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="n">
-        <v>4544.65161850865</v>
+        <v>4514.91146760278</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -6935,7 +6242,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="n">
-        <v>4766.01443960671</v>
+        <v>4735.51825974288</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -6961,7 +6268,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="n">
-        <v>4987.89764452582</v>
+        <v>4956.72736659566</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -6987,7 +6294,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="n">
-        <v>5210.18021441392</v>
+        <v>5178.4218812419</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -7013,7 +6320,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="n">
-        <v>5432.81472412994</v>
+        <v>5400.55809488731</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -7039,7 +6346,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="n">
-        <v>5655.78731325338</v>
+        <v>5623.12568506515</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -7065,7 +6372,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="n">
-        <v>5879.09878538989</v>
+        <v>5846.12892382019</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -7091,7 +6398,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="n">
-        <v>6102.75575057543</v>
+        <v>6069.5778741666</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -7117,7 +6424,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="n">
-        <v>6326.76653456136</v>
+        <v>6293.48432568884</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -7143,7 +6450,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="n">
-        <v>6551.13934428569</v>
+        <v>6517.85997232274</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -7169,7 +6476,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="n">
-        <v>6775.88149543375</v>
+        <v>6742.71564518632</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -7195,7 +6502,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="n">
-        <v>7000.99913475915</v>
+        <v>6968.06103666432</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -7221,7 +6528,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="n">
-        <v>7226.49718816319</v>
+        <v>7193.90464853384</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -7247,7 +6554,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="n">
-        <v>7452.37940747886</v>
+        <v>7420.25383798024</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -7273,7 +6580,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="n">
-        <v>7678.64845639776</v>
+        <v>7647.11490239467</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -7299,7 +6606,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="n">
-        <v>7905.30600802393</v>
+        <v>7874.4931756618</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -7325,7 +6632,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="n">
-        <v>8132.35284171226</v>
+        <v>8102.39312370419</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -7351,7 +6658,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="n">
-        <v>8359.78893399586</v>
+        <v>8330.81843413839</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -7377,7 +6684,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="n">
-        <v>8587.61354173859</v>
+        <v>8559.7720982002</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -7403,7 +6710,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="n">
-        <v>8815.82527717052</v>
+        <v>8789.25648460415</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -7429,7 +6736,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="n">
-        <v>9044.42217513056</v>
+        <v>9019.27340566143</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -7455,7 +6762,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="n">
-        <v>9273.40175310526</v>
+        <v>9249.82417624235</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -7481,7 +6788,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="n">
-        <v>9502.76106473191</v>
+        <v>9480.90966624719</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -7507,7 +6814,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="n">
-        <v>9732.4967474295</v>
+        <v>9712.5303472443</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -7533,7 +6840,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="n">
-        <v>9962.60506478131</v>
+        <v>9944.68633389493</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -7559,7 +6866,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="n">
-        <v>10193.0819442402</v>
+        <v>10177.3774207313</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -7585,7 +6892,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="n">
-        <v>10423.9230106723</v>
+        <v>10410.6031147999</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -7611,7 +6918,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="n">
-        <v>10655.1236162022</v>
+        <v>10644.3626646299</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -7637,7 +6944,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="n">
-        <v>10886.6788667723</v>
+        <v>10878.6550859351</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -7663,7 +6970,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="n">
-        <v>11118.5836457855</v>
+        <v>11113.4791844175</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -7689,7 +6996,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="n">
-        <v>11350.8326351587</v>
+        <v>11348.8335759961</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -7715,7 +7022,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="n">
-        <v>11583.4203340799</v>
+        <v>11584.7167047513</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -7741,7 +7048,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="n">
-        <v>11816.3410757268</v>
+        <v>11821.1268588426</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -7767,7 +7074,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="n">
-        <v>12049.589042179</v>
+        <v>12058.0621846276</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -7793,7 +7100,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="n">
-        <v>12283.1582777278</v>
+        <v>12295.5206991873</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -7819,7 +7126,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="n">
-        <v>12517.0427007657</v>
+        <v>12533.5003014355</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -7845,7 +7152,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="n">
-        <v>12751.236114417</v>
+        <v>12771.9987819758</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -7884,352 +7191,352 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -8239,12 +7546,12 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
@@ -8254,1266 +7561,86 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
         <v>20</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v2 output.xlsx
+++ b/vignettes/Alameda-May4-v2 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,10 +86,226 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
+    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:   2.890940             4                            4        0.04202709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:   2.443608             1                            5        0.06810695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:   3.705172             3                            4        0.03828022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:   3.097102             2                            5        0.02517421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:   4.921586             3                            7        0.03643845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:   3.377879             2                            5        0.03032866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:   2.929420             4                            5        0.04777166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:   4.067994             4                            4        0.04787753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:   3.812798             4                            4        0.05059497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:   3.143115             3                            4        0.01616573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                  11 0.4487887 0.8292936         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                  13 0.5502658 0.8831492         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                  11 0.4664154 0.8195063         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                   8 0.4287021 0.8479070         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                  11 0.4736474 0.8533035         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                  11 0.4393939 0.8796800         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                   8 0.4920944 0.8337167         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                  11 0.4706050 0.8279167         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                   7 0.4675072 0.8122769         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                  11 0.4511491 0.8924137         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.5251996                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.6580592                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.7779575                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.8273989                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.5157291                         8         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.8397557                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4330270                         9         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.6462548                         9         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.5661305                         4         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.4177203                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.3952299                         8         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.4654842                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.3139963                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.5594182                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.6443424                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.2966097                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4457069                         8         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.5541582                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.3275438                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.9422704                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                 1.679144                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                 1.365394                         8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                 1.471412                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                 2.040386                        10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                 1.449264                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                 1.541516                         4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                 1.462749                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                 1.414118                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                 2.013811                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                 1.605697                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                           FALSE          TRUE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                           FALSE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                            TRUE          TRUE                   6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                            TRUE          TRUE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                            TRUE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                            TRUE         FALSE                   9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                            TRUE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                            TRUE          TRUE                  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                           FALSE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                            TRUE          TRUE                   9</t>
+  </si>
+  <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">NULL</t>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -98,19 +314,388 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15                 0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3                 3.5          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8                  10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5                 0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
   </si>
   <si>
+    <t xml:space="preserve">        internal.name            external.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-07-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
   </si>
   <si>
+    <t xml:space="preserve">          Date LowerBound UpperBound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01         52      59.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02         57      65.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03         64      73.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04         60      69.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05         72      82.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06         79      90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07         76      87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09         80      92.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10         93     106.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11         87     100.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12         91     104.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14         92     105.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15         81      93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18         82      94.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23         81      93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24         79      90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25         83      95.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27         81      93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28         76      87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29         76      87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30         74      85.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01         75      86.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02         73      83.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03         73      83.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$Internal</t>
   </si>
   <si>
+    <t xml:space="preserve">                    internal.name             value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:               search.max.iter                20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               search.expander                 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:           search.num.init.exp                 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:               max.nonconverge              0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                   random.seed             12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:                output.filestr                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:      add.timestamp.to.filestr             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:           min.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:           max.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:               main.iterations             10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:         simulation.start.date        2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        lower.bound.multiplier               0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:        upper.bound.multiplier               1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:            required.in.bounds                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                 show.progress              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:  plot.observed.data.long.term             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: plot.observed.data.short.term              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:             lower.bound.label Confirmed COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:             upper.bound.label  Probable COVID19</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 11:06:44"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:54:22"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -125,6 +710,105 @@
     <t xml:space="preserve">$hosp.bounds</t>
   </si>
   <si>
+    <t xml:space="preserve">          date lower  upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01    52  59.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02    57  65.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03    64  73.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04    60  69.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05    72  82.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06    79  90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07    76  87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09    80  92.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10    93 106.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11    87 100.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12    91 104.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14    92 105.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15    81  93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18    82  94.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23    81  93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24    79  90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25    83  95.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27    81  93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28    76  87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29    76  87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30    74  85.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01    75  86.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02    73  83.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03    73  83.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">$internal.args</t>
   </si>
   <si>
@@ -257,7 +941,142 @@
     <t xml:space="preserve">$observed.data</t>
   </si>
   <si>
+    <t xml:space="preserve">          date   hosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 55.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 61.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 68.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 64.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 77.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 84.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 81.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 86.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 99.975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 93.525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 97.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 98.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 87.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 88.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 87.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 84.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 89.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 87.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 81.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 81.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 79.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 80.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 78.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 78.475</t>
+  </si>
+  <si>
     <t xml:space="preserve">$upp.params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:        3.5             3                            5              0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.6                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      1.5                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
   </si>
 </sst>
 </file>
@@ -15133,486 +15952,1886 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
         <v>20</v>
       </c>
     </row>
